--- a/ListaDeEmails.xlsx
+++ b/ListaDeEmails.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -19,10 +19,28 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Vanderlei souza</t>
+    <t>Daniela Fontana</t>
   </si>
   <si>
-    <t>contato@builderseunegocioonline.com.br</t>
+    <t>danilo@fadin.com.br</t>
+  </si>
+  <si>
+    <t>GABRIEL C BASTIANI</t>
+  </si>
+  <si>
+    <t>gabriel.bastiani@sumig.com</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>contato@gabrielbastiani.com</t>
+  </si>
+  <si>
+    <t>Gabriel de bastiani</t>
+  </si>
+  <si>
+    <t>atendimento@sumig.com</t>
   </si>
 </sst>
 </file>
@@ -68,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -90,6 +108,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
